--- a/downloaded_files/SBES131_Lecture-35342.xlsx
+++ b/downloaded_files/SBES131_Lecture-35342.xlsx
@@ -129,7 +129,7 @@
     <x:t>زياد خالد عزت عبد المنعم</x:t>
   </x:si>
   <x:si>
-    <x:t>Zeyad khaled ezzat abdel monem</x:t>
+    <x:t>Zeyad khaled Ezzat Abdel Moniem</x:t>
   </x:si>
   <x:si>
     <x:t>1230190</x:t>

--- a/downloaded_files/SBES131_Lecture-35342.xlsx
+++ b/downloaded_files/SBES131_Lecture-35342.xlsx
@@ -1635,11 +1635,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Clinical Engineering (SBES131) Location : [18201]18201-45-الجيزة الرئيسي Time : Wednesday(16:18)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Clinical Engineering (SBES131) Location : [18201]18201-45-الجيزة الرئيسي Time : Wednesday(17:19)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Clinical Engineering (SBES131) Location : [18201]18201-45-الجيزة الرئيسي Time : Wednesday(16:18)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Clinical Engineering (SBES131) Location : [18201]18201-45-الجيزة الرئيسي Time : Wednesday(17:19)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Clinical Engineering (SBES131) Location : [18201]18201-45-الجيزة الرئيسي Time : Wednesday(16:18)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Clinical Engineering (SBES131) Location : [18201]18201-45-الجيزة الرئيسي Time : Wednesday(17:19)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/SBES131_Lecture-35342.xlsx
+++ b/downloaded_files/SBES131_Lecture-35342.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,6 +94,15 @@
   </x:si>
   <x:si>
     <x:t>Amena Tamer Mohamed Shawky Elekhtyar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اياد عادل محمد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eyad Adel Mohamed Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1230170</x:t>
@@ -389,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1004,7 +1013,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4154093403</x:v>
+        <x:v>45930.3618038194</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1036,7 +1045,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.8126204861</x:v>
+        <x:v>45907.4154093403</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1068,7 +1077,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6672243056</x:v>
+        <x:v>45909.8126204861</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1100,7 +1109,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6644150463</x:v>
+        <x:v>45907.6672243056</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1132,7 +1141,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.666603588</x:v>
+        <x:v>45906.6644150463</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1164,7 +1173,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.667975081</x:v>
+        <x:v>45907.666603588</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1196,7 +1205,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6670137731</x:v>
+        <x:v>45907.667975081</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1228,7 +1237,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4153362616</x:v>
+        <x:v>45907.6670137731</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1260,7 +1269,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6650239583</x:v>
+        <x:v>45907.4153362616</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1292,7 +1301,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6661828356</x:v>
+        <x:v>45907.6650239583</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1324,7 +1333,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6667787037</x:v>
+        <x:v>45907.6661828356</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1356,7 +1365,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6660198727</x:v>
+        <x:v>45907.6667787037</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1388,7 +1397,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4256484144</x:v>
+        <x:v>45907.6660198727</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1420,7 +1429,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4199545139</x:v>
+        <x:v>45909.4256484144</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1452,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.665184456</x:v>
+        <x:v>45907.4199545139</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1484,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6658914352</x:v>
+        <x:v>45907.665184456</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1516,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6671912037</x:v>
+        <x:v>45907.6658914352</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1548,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6687499653</x:v>
+        <x:v>45907.6671912037</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1580,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4152314005</x:v>
+        <x:v>45907.6687499653</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1612,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6673608449</x:v>
+        <x:v>45907.4152314005</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1629,6 +1638,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45907.6673608449</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
